--- a/qa/01.测试用例/音乐音效相关/音乐音效测试用例.xlsx
+++ b/qa/01.测试用例/音乐音效相关/音乐音效测试用例.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="分析" sheetId="6" r:id="rId2"/>
     <sheet name="逻辑" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="215">
   <si>
     <t>caseID</t>
   </si>
@@ -689,81 +689,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在列表项B上配置点击音效，点击各种控件，查看音效</t>
+  </si>
+  <si>
+    <t>在按钮A上配置点击音效1，点击各种控件，查看音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放配置点击音效1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放默认点击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在按钮B上配置点击音效1，点击各种控件，查看音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在切页签A上配置点击音效1，点击各种控件，查看音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在切页签B上配置点击音效1，点击各种控件，查看音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在列表项A上配置点击音效1，点击各种控件，查看音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在技能开始释放时触发播放音效1</t>
+  </si>
+  <si>
+    <t>技能命中不触发播放施法音效</t>
+  </si>
+  <si>
+    <t>技能施法不触发播放音效</t>
+  </si>
+  <si>
+    <t>命中时触发播放命中音效1</t>
+  </si>
+  <si>
+    <t>boss释放对应技能时触发播放施法语音</t>
+  </si>
+  <si>
+    <t>音效播放条件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面B-配置默认音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面B-未配置默认音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不播放开启音效，播放默认音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无音效播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不播放关闭音效，播放默认音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据走读结果回归用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-664</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-665</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-666</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>副本背景音乐停止，开始播放对局结算背景音乐B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在列表项B上配置点击音效，点击各种控件，查看音效</t>
-  </si>
-  <si>
-    <t>在按钮A上配置点击音效1，点击各种控件，查看音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放配置点击音效1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放默认点击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在按钮B上配置点击音效1，点击各种控件，查看音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在切页签A上配置点击音效1，点击各种控件，查看音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在切页签B上配置点击音效1，点击各种控件，查看音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在列表项A上配置点击音效1，点击各种控件，查看音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在技能开始释放时触发播放音效1</t>
-  </si>
-  <si>
-    <t>技能命中不触发播放施法音效</t>
-  </si>
-  <si>
-    <t>技能施法不触发播放音效</t>
-  </si>
-  <si>
-    <t>命中时触发播放命中音效1</t>
-  </si>
-  <si>
-    <t>boss释放对应技能时触发播放施法语音</t>
-  </si>
-  <si>
-    <t>音效播放条件测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面B-配置默认音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面B-未配置默认音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不播放开启音效，播放默认音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无音效播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不播放关闭音效，播放默认音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据走读结果回归用例</t>
+    <t>BG-667</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-668</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-669</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-671</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-672</t>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,8 +919,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,15 +992,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,8 +1069,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,19 +1081,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_目录" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1428,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B21:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1600,7 @@
         <v>42262</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -1595,13 +1711,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1612,23 +1728,23 @@
     <col min="4" max="4" width="5.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="49.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="22" style="5" customWidth="1"/>
-    <col min="7" max="8" width="39.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="28.5" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="31.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,17 +1766,17 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1668,10 +1784,10 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1806,14 @@
       <c r="G4" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -1737,7 +1859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1745,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +1883,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1891,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D14" s="6">
         <v>3</v>
       </c>
@@ -1783,7 +1905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1913,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1991,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1891,6 +2013,12 @@
       <c r="G26" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
@@ -1899,6 +2027,12 @@
       <c r="G27" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F28" s="5" t="s">
@@ -1963,6 +2097,9 @@
       <c r="G35" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="H35" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D36" s="6">
@@ -1974,10 +2111,6 @@
       <c r="G36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
@@ -1995,7 +2128,6 @@
       <c r="G38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D39" s="6">
@@ -2010,7 +2142,6 @@
       <c r="G39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F40" s="5" t="s">
@@ -2019,7 +2150,6 @@
       <c r="G40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D41" s="6">
@@ -2031,10 +2161,6 @@
       <c r="G41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
@@ -2055,7 +2181,6 @@
       <c r="G43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F44" s="5" t="s">
@@ -2064,7 +2189,6 @@
       <c r="G44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D45" s="6">
@@ -2079,7 +2203,6 @@
       <c r="G45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="F46" s="5" t="s">
@@ -2088,10 +2211,6 @@
       <c r="G46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
@@ -2101,7 +2220,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2123,6 +2242,12 @@
       <c r="G49" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="H49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F50" s="5" t="s">
@@ -2131,6 +2256,9 @@
       <c r="G50" s="7" t="s">
         <v>164</v>
       </c>
+      <c r="H50" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F51" s="5" t="s">
@@ -2139,6 +2267,9 @@
       <c r="G51" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="H51" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F52" s="5" t="s">
@@ -2147,6 +2278,9 @@
       <c r="G52" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="H52" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D53" s="6">
@@ -2158,6 +2292,9 @@
       <c r="G53" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="H53" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D54" s="6">
@@ -2172,6 +2309,9 @@
       <c r="G54" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="H54" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F55" s="5" t="s">
@@ -2180,6 +2320,9 @@
       <c r="G55" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="H55" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F56" s="5" t="s">
@@ -2188,8 +2331,11 @@
       <c r="G56" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H56" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="D57" s="6">
         <v>4</v>
       </c>
@@ -2202,14 +2348,20 @@
       <c r="G57" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H57" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="D58" s="5"/>
       <c r="F58" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2221,6 +2373,9 @@
       </c>
       <c r="G59" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -2231,7 +2386,7 @@
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2253,24 +2408,30 @@
       <c r="G62" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="H62" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F63" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F64" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D65" s="6">
         <v>2</v>
       </c>
@@ -2284,23 +2445,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F66" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F67" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="6" t="s">
         <v>105</v>
       </c>
@@ -2319,24 +2480,30 @@
       <c r="G69" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F70" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F71" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D72" s="6">
         <v>2</v>
       </c>
@@ -2350,724 +2517,780 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F74" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F74" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B75" s="6" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="27">
         <v>1</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F76" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G76" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F76" s="5" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G77" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>1</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="H79" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F80" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F82" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F80" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F81" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F82" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F83" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D84" s="6">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F85" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F86" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F87" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F87" s="5" t="s">
+      <c r="G87" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F88" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F89" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F89" s="5" t="s">
+      <c r="G89" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F90" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D90" s="6">
+      <c r="G90" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D91" s="6">
         <v>3</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="E91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F92" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F92" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F93" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F95" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F96" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D96" s="6">
+      <c r="G96" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D97" s="6">
         <v>4</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="E97" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F98" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F99" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F99" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F100" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F101" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F101" s="5" t="s">
+      <c r="G101" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F102" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D102" s="6">
+      <c r="G102" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D103" s="6">
         <v>5</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="E103" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F104" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F105" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F105" s="5" t="s">
+      <c r="G105" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F106" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F106" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F107" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F108" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D108" s="6">
+      <c r="G108" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D109" s="6">
         <v>6</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F108" s="5" t="s">
+      <c r="E109" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F109" s="5" t="s">
+      <c r="G109" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F110" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F110" s="5" t="s">
+      <c r="G110" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F111" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F111" s="5" t="s">
+      <c r="G111" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F112" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F112" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="G112" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F113" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="20" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F114" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="21"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D117" s="6">
         <v>1</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G117" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F117" s="5" t="s">
+      <c r="H119" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F120" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D118" s="6">
+      <c r="H120" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F123" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D124" s="6">
         <v>2</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F118" s="5" t="s">
+      <c r="E124" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F119" s="5" t="s">
+      <c r="G124" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F125" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="6" t="s">
+      <c r="G125" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" s="6">
+      <c r="C130" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" s="6">
         <v>1</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F122" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D123" s="6">
-        <v>2</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F124" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D126" s="6">
-        <v>1</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="21"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B129" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F130" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F130" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H130" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F131" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H131" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F132" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F133" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G133" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D133" s="6">
+      <c r="H133" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D134" s="6">
         <v>2</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B135" s="6" t="s">
+      <c r="H134" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B136" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D135" s="6">
+      <c r="C136" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="6">
         <v>1</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F136" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G136" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F136" s="5" t="s">
+      <c r="H136" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F137" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F137" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F138" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F139" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D139" s="6">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D140" s="6">
         <v>2</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B141" s="6" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D142" s="6">
         <v>1</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F142" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F142" s="5" t="s">
+      <c r="H142" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F143" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G143" s="7" t="s">
         <v>141</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:H2">
-    <cfRule type="cellIs" dxfId="14" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D2:G2">
+    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:K24 I26:K47 I49:K60 I62:K114 I116:K127 I129:K1048576">
-    <cfRule type="cellIs" dxfId="12" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:J3 H5:J25 H4 J4 H28:J48 H26 J26:J27 H50:J56 H49 J49 H58:J61 H57 J57 H62 J62 H63:J68 H137:J1048576 H136 J136 H70:J79 H69 J69 H80 J80 H81:J135">
+    <cfRule type="cellIs" dxfId="11" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:K25">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:K48">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:K61">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:K115">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:K128">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-664"/>
+    <hyperlink ref="I26" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-665"/>
+    <hyperlink ref="I27" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-665"/>
+    <hyperlink ref="I49" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-666"/>
+    <hyperlink ref="I57" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-667"/>
+    <hyperlink ref="I62" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-668"/>
+    <hyperlink ref="I136" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-669"/>
+    <hyperlink ref="I69" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-671"/>
+    <hyperlink ref="I80" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-672"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>